--- a/biology/Zoologie/Formica_flori/Formica_flori.xlsx
+++ b/biology/Zoologie/Formica_flori/Formica_flori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Formica flori est une espèce fossile de fourmis de la tribu des Formicini (sous-famille des Formicinae).
 </t>
@@ -511,65 +523,247 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Formica flori est décrite en 1868 par le paléontologue et entomologiste autrichien Gustav Mayr (1830-1908)[1],[2]. 
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de collections de fossiles référencées est de vingt-deux[2] :
-Rupélien de l'Oligocène inférieur, une collection d'Allemagne, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[3] ;
-Priabonien de l'Éocène supérieur, une collection d'Allemagne, une de Lituanie, trois de Pologne, deux d'Ukraine, quatorze de Russie[2].
-Synonymes
-Selon Paleobiology Database en 2023, le nombre de synonymes est de six[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Formica flori est décrite en 1868 par le paléontologue et entomologiste autrichien Gustav Mayr (1830-1908),. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Formica_flori</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_flori</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre de collections de fossiles référencées est de vingt-deux :
+Rupélien de l'Oligocène inférieur, une collection d'Allemagne, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse ;
+Priabonien de l'Éocène supérieur, une collection d'Allemagne, une de Lituanie, trois de Pologne, deux d'Ukraine, quatorze de Russie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Formica_flori</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_flori</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre de synonymes est de six : 
 †Formica (Serviformica) antiqua Dlussky, 1967
 †Formica (Serviformica) baltica Dlussky, 1967
 †Formica (Serviformica) parvula Dlussky, 1967
 †Formica antiqua Dlussky, 1967
 †Formica baltica Dlussky, 1967
-†Formica egecomerta Özdikmen, 2010
-Étymologie
-L'épithète spécifique latine flori signifie « fleur ».
+†Formica egecomerta Özdikmen, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Formica_flori</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_flori</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine flori signifie « fleur ».
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Formica_flori</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Formica_flori</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[3],[note 1] : 
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
 « ♀ Échant. R981.
 Teinte brunâtre, même jaunâtre. Ailes transparentes avec nervures jaunâtres. Pattes brun-foncé.
 Tête subquadrangulaire ; coins postérieurs arrondis ; yeux de forme ovale, placés vers le milieu et sur les bords; ocelles petits ; mandibules à peine visibles à l'avant ; antennes avec scape court, n'atteignant pas l'arrière de la tête ; mandibules à peine apparentes, le bord masticateur semble dépourvu de dents. Cou net. Thorax ovale, allongé, à peine plus large que la tête ; arrondi à l'avant ; mésonotum allongé ; scutellum arrondi à l'arrière. Pétiole formé d'un segment assez long. Abdomen subcylindrique, légèrement convergent vers l'arrière, brusquement arrondi à l'apex ; le premier segment est trapézoïdal ; six segments, dont le dernier montre encore très nettement une ponctuation chagrinée, due aux points d’insertion des poils. Pattes brunes, cuisses fortes, tibias subcylindriques. Ailes transparentes, à nervures jaunes ; stigma court et étroit ; une cellule discoïdale et une cellule cubitale fermées ; ailes étroites, atteignant l'extrémité de l'abdomen.
 ♂ échant. R345, pl. XV. fig 3.
-Insecte identique au précédent, mais abdomen avec six segments et de forme plus ovale. Teinte brun-foncé. Pattes manquent. »[3].
-Dimensions
-La longueur totale est de 6 mm[3].
-Affinités
+Insecte identique au précédent, mais abdomen avec six segments et de forme plus ovale. Teinte brun-foncé. Pattes manquent. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Formica_flori</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_flori</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 6 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Formica_flori</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_flori</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « ♀ : semble se confondre avec Formica flori Mayr de l'ambre de la Baltique. F. flori est voisin de F. fusca, mais ne lui est pas identique. Deux échantillons R981, 555.
-♂ Trois échantillons R345, 608, 301 (?). »[3].
+♂ Trois échantillons R345, 608, 301 (?). ».
 </t>
         </is>
       </c>
